--- a/practica01/practica1.xlsx
+++ b/practica01/practica1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kekol\Desktop\UAL\3 Curso\Sistemas de Tiempo Real\Practicas\BarrientosAntequeraSTR2024\practica01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\STR\BarrientosAntequeraSTR2024\practica01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15492FEE-9129-4831-B410-934F65627747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB907D21-5844-49E1-B9F1-36920414C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,13 +83,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +138,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Primera Ejecución</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -244,49 +285,49 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4000000</c:v>
+                  <c:v>6148410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000000</c:v>
+                  <c:v>7215860</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000000</c:v>
+                  <c:v>8228590</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000000</c:v>
+                  <c:v>9212850</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.38146999999999998</c:v>
+                  <c:v>10008700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1000000</c:v>
+                  <c:v>10510600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2000000</c:v>
+                  <c:v>10659900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3000000</c:v>
+                  <c:v>10681000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4000000</c:v>
+                  <c:v>10857900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5000000</c:v>
+                  <c:v>11101600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6000000</c:v>
+                  <c:v>11209200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7000000</c:v>
+                  <c:v>11430300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8000000</c:v>
+                  <c:v>11316400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9000000</c:v>
+                  <c:v>11408800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-10000000</c:v>
+                  <c:v>11098200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,49 +426,49 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5000000</c:v>
+                  <c:v>7148410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000000</c:v>
+                  <c:v>8215860</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000000</c:v>
+                  <c:v>9228590</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000000</c:v>
+                  <c:v>10212800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
+                  <c:v>11008700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.28919499999999998</c:v>
+                  <c:v>11510600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1000000</c:v>
+                  <c:v>11659900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2000000</c:v>
+                  <c:v>11681000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3000000</c:v>
+                  <c:v>11857900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4000000</c:v>
+                  <c:v>12101600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5000000</c:v>
+                  <c:v>12209200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6000000</c:v>
+                  <c:v>12430300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7000000</c:v>
+                  <c:v>12316400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8000000</c:v>
+                  <c:v>12408800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9000000</c:v>
+                  <c:v>12098200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,46 +1279,46 @@
                   <c:v>24621600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20200400</c:v>
+                  <c:v>29636200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15847300</c:v>
+                  <c:v>34363400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11445600</c:v>
+                  <c:v>38801600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7053600</c:v>
+                  <c:v>43124400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2637240</c:v>
+                  <c:v>46595600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1730400</c:v>
+                  <c:v>48824200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6122400</c:v>
+                  <c:v>49479700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10548500</c:v>
+                  <c:v>49538500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-14906400</c:v>
+                  <c:v>50349500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-19322800</c:v>
+                  <c:v>51395600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-23641700</c:v>
+                  <c:v>51941100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-28058000</c:v>
+                  <c:v>52887700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-32474400</c:v>
+                  <c:v>52363300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-36915100</c:v>
+                  <c:v>52720500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,16 +2085,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2346,478 +2387,482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="2">
+        <v>6148410</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7148410</v>
+      </c>
+      <c r="D2" s="2">
         <v>2000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>2000000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>1500000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>45000000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>60400000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>24621600</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="2">
+        <v>7215860</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8215860</v>
+      </c>
+      <c r="D3" s="2">
         <v>2060000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>2000000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>1500000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>45000000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>60400000</v>
       </c>
-      <c r="I3" s="1">
-        <v>20200400</v>
+      <c r="I3" s="2">
+        <v>29636200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
+        <v>8228590</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9228590</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1980000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2010000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>60900000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>34363400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9212850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10212800</v>
+      </c>
+      <c r="D5" s="2">
         <v>2000000</v>
       </c>
-      <c r="C4" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1980000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2010000</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F5" s="2">
         <v>1500000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="2">
         <v>45000000</v>
       </c>
-      <c r="H4" s="1">
-        <v>60900000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>15847300</v>
+      <c r="H5" s="2">
+        <v>62000000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>38801600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10008700</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11008700</v>
+      </c>
+      <c r="D6" s="2">
         <v>2000000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="2">
         <v>2000000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>59000000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>43124400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10510600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11510600</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2050000</v>
+      </c>
+      <c r="E7" s="2">
         <v>2000000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F7" s="2">
         <v>1500000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G7" s="2">
         <v>45000000</v>
       </c>
-      <c r="H5" s="1">
-        <v>62000000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>11445600</v>
+      <c r="H7" s="2">
+        <v>53000000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>46595600</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-0.38146999999999998</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10659900</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11659900</v>
+      </c>
+      <c r="D8" s="2">
         <v>2000000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="2">
         <v>2000000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F8" s="2">
         <v>1500000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G8" s="2">
         <v>45000000</v>
       </c>
-      <c r="H6" s="1">
-        <v>59000000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>7053600</v>
+      <c r="H8" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>48824200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-1000000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.28919499999999998</v>
-      </c>
-      <c r="D7" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10681000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11681000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2020000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>42000000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>49479700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10857900</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11857900</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2070000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>46000000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>49538500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11101600</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12101600</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>48000000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>50349500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11209200</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12209200</v>
+      </c>
+      <c r="D12" s="2">
         <v>2050000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E12" s="2">
         <v>2000000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F12" s="2">
         <v>1500000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G12" s="2">
         <v>45000000</v>
       </c>
-      <c r="H7" s="1">
-        <v>53000000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2637240</v>
+      <c r="H12" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>51395600</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-2000000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-1000000</v>
-      </c>
-      <c r="D8" s="1">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11430300</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12430300</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1900000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>48000000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>51941100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11316400</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12316400</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1950000</v>
+      </c>
+      <c r="E14" s="2">
         <v>2000000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F14" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>52887700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>11408800</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12408800</v>
+      </c>
+      <c r="D15" s="2">
         <v>2000000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E15" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F15" s="2">
         <v>1500000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G15" s="2">
         <v>45000000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H15" s="2">
         <v>45000000</v>
       </c>
-      <c r="I8" s="1">
-        <v>-1730400</v>
+      <c r="I15" s="2">
+        <v>52363300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-3000000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-2000000</v>
-      </c>
-      <c r="D9" s="1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11098200</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12098200</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="E16" s="2">
         <v>2000000</v>
       </c>
-      <c r="E9" s="1">
-        <v>2020000</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="F16" s="2">
         <v>1500000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G16" s="2">
         <v>45000000</v>
       </c>
-      <c r="H9" s="1">
-        <v>42000000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-6122400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4000000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-3000000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2070000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>46000000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-10548500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-5000000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-4000000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>48000000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-14906400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-6000000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-5000000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2050000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-19322800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-7000000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-6000000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1900000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2030000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>48000000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-23641700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-8000000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-7000000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1950000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="H14" s="1">
-        <v>40000000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-28058000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-9000000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-8000000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="H15" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-32474400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-10000000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-9000000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2100000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>35000000</v>
       </c>
-      <c r="I16" s="1">
-        <v>-36915100</v>
+      <c r="I16" s="2">
+        <v>52720500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>